--- a/STM32F4引脚使用表.xlsx
+++ b/STM32F4引脚使用表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\Mycode\MyProject\MyProject_STM32F4\A项目：无人艇-v1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\Mycode\MyProject\MyProject_STM32F4\A项目：无人艇\A项目：无人艇-v1.01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A7AF9F-9EE1-478F-B13A-47BDBAA96B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEF5AD7-193F-4735-93C2-8AAB646DF6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="174">
   <si>
     <t>引脚名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -688,6 +688,34 @@
   </si>
   <si>
     <t>蓝牙接收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART2_TX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART2_RX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART6_RX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED与USART6_TX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1130,7 +1158,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1661,6 +1689,12 @@
       <c r="E21" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="F21" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>172</v>
+      </c>
       <c r="I21" s="2" t="s">
         <v>93</v>
       </c>
@@ -1672,8 +1706,12 @@
       <c r="A22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="B22" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>172</v>
+      </c>
       <c r="E22" s="3" t="s">
         <v>43</v>
       </c>
@@ -1690,8 +1728,12 @@
       <c r="A23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
+      <c r="B23" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>172</v>
+      </c>
       <c r="E23" s="3" t="s">
         <v>59</v>
       </c>
@@ -1727,12 +1769,18 @@
         <v>48</v>
       </c>
       <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
+      <c r="C25" s="10" t="s">
+        <v>169</v>
+      </c>
       <c r="E25" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="6"/>
+      <c r="F25" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>170</v>
+      </c>
       <c r="I25" s="2" t="s">
         <v>101</v>
       </c>

--- a/STM32F4引脚使用表.xlsx
+++ b/STM32F4引脚使用表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\Mycode\MyProject\MyProject_STM32F4\A项目：无人艇\A项目：无人艇-v1.01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.23.22.215\无人艇\底层控制\23级-陈轩杰\A项目：无人艇\A项目：无人艇-v3-240620\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEF5AD7-193F-4735-93C2-8AAB646DF6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918C436B-1F57-46A7-ADB3-D6AA7E69793A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21697" yWindow="1042" windowWidth="21795" windowHeight="13696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="176">
   <si>
     <t>引脚名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -716,6 +716,14 @@
   </si>
   <si>
     <t>LED与USART6_TX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPS_RX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPS_TX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1158,22 +1166,22 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="24.1328125" customWidth="1"/>
-    <col min="6" max="6" width="16.53125" customWidth="1"/>
-    <col min="7" max="7" width="26.3984375" customWidth="1"/>
-    <col min="10" max="10" width="14.46484375" customWidth="1"/>
-    <col min="11" max="11" width="26.06640625" customWidth="1"/>
-    <col min="14" max="14" width="11.9296875" customWidth="1"/>
-    <col min="15" max="15" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="3" max="3" width="24.125" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="26.375" customWidth="1"/>
+    <col min="10" max="10" width="14.5" customWidth="1"/>
+    <col min="11" max="11" width="26.125" customWidth="1"/>
+    <col min="14" max="14" width="11.875" customWidth="1"/>
+    <col min="15" max="15" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>3</v>
       </c>
@@ -1194,7 +1202,7 @@
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1234,7 +1242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1252,7 +1260,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1278,7 +1286,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1308,7 +1316,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1334,7 +1342,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1366,7 +1374,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1390,7 +1398,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -1408,7 +1416,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -1426,7 +1434,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -1448,7 +1456,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -1474,7 +1482,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -1500,7 +1508,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -1532,7 +1540,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -1560,7 +1568,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>32</v>
       </c>
@@ -1578,7 +1586,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
@@ -1602,7 +1610,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
@@ -1626,7 +1634,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -1656,7 +1664,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -1680,7 +1688,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>42</v>
       </c>
@@ -1692,8 +1700,8 @@
       <c r="F21" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="G21" s="7" t="s">
-        <v>172</v>
+      <c r="G21" s="10" t="s">
+        <v>174</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>93</v>
@@ -1702,15 +1710,15 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>172</v>
+      <c r="C22" s="10" t="s">
+        <v>175</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>43</v>
@@ -1724,7 +1732,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>45</v>
       </c>
@@ -1746,7 +1754,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>47</v>
       </c>
@@ -1764,7 +1772,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -1788,7 +1796,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -1810,7 +1818,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -1836,7 +1844,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
@@ -1852,7 +1860,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
@@ -1874,7 +1882,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
@@ -1892,7 +1900,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>

--- a/STM32F4引脚使用表.xlsx
+++ b/STM32F4引脚使用表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.23.22.215\无人艇\底层控制\23级-陈轩杰\A项目：无人艇\A项目：无人艇-v3-240620\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\Mycode\MyProject\MyProject_STM32F4\A项目：无人艇\A项目：无人艇-v1.01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918C436B-1F57-46A7-ADB3-D6AA7E69793A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEF5AD7-193F-4735-93C2-8AAB646DF6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21697" yWindow="1042" windowWidth="21795" windowHeight="13696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="174">
   <si>
     <t>引脚名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -716,14 +716,6 @@
   </si>
   <si>
     <t>LED与USART6_TX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPS_RX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPS_TX</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1166,22 +1158,22 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="15.375" customWidth="1"/>
-    <col min="3" max="3" width="24.125" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="26.375" customWidth="1"/>
-    <col min="10" max="10" width="14.5" customWidth="1"/>
-    <col min="11" max="11" width="26.125" customWidth="1"/>
-    <col min="14" max="14" width="11.875" customWidth="1"/>
-    <col min="15" max="15" width="24.375" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.1328125" customWidth="1"/>
+    <col min="6" max="6" width="16.53125" customWidth="1"/>
+    <col min="7" max="7" width="26.3984375" customWidth="1"/>
+    <col min="10" max="10" width="14.46484375" customWidth="1"/>
+    <col min="11" max="11" width="26.06640625" customWidth="1"/>
+    <col min="14" max="14" width="11.9296875" customWidth="1"/>
+    <col min="15" max="15" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
         <v>3</v>
       </c>
@@ -1202,7 +1194,7 @@
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1242,7 +1234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1260,7 +1252,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1286,7 +1278,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1316,7 +1308,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1342,7 +1334,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1374,7 +1366,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1398,7 +1390,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -1416,7 +1408,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -1434,7 +1426,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -1456,7 +1448,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -1482,7 +1474,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -1508,7 +1500,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -1540,7 +1532,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -1568,7 +1560,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>32</v>
       </c>
@@ -1586,7 +1578,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
@@ -1610,7 +1602,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
@@ -1634,7 +1626,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
@@ -1664,7 +1656,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -1688,7 +1680,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>42</v>
       </c>
@@ -1700,8 +1692,8 @@
       <c r="F21" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="G21" s="10" t="s">
-        <v>174</v>
+      <c r="G21" s="7" t="s">
+        <v>172</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>93</v>
@@ -1710,15 +1702,15 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>175</v>
+      <c r="C22" s="7" t="s">
+        <v>172</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>43</v>
@@ -1732,7 +1724,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>45</v>
       </c>
@@ -1754,7 +1746,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>47</v>
       </c>
@@ -1772,7 +1764,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -1796,7 +1788,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -1818,7 +1810,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -1844,7 +1836,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
@@ -1860,7 +1852,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
@@ -1882,7 +1874,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
@@ -1900,7 +1892,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
